--- a/output/table.xlsx
+++ b/output/table.xlsx
@@ -626,22 +626,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>006-000403700</t>
+          <t>006-000000129</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Bureau of the Census</t>
+          <t>Economics and Statistics Administration</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Census - Schedule A Human Resources Recruiting, Payroll System (C-SHARPS)</t>
+          <t>BEA Estimation Information Technology System (BEA-EITS) for Measuring the Changing US Economy.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>$2.150</t>
+          <t>$12.176</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -650,31 +650,31 @@
         </is>
       </c>
       <c r="F1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>006-000312900</t>
+          <t>006-000400700</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>National Oceanic and Atmospheric Administration</t>
+          <t>Bureau of the Census</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NOAA/NWS/ Dissemination</t>
+          <t>Census - Economic Census and Surveys</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$65.819</t>
+          <t>$71.360</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -683,31 +683,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>006-000400700</t>
+          <t>006-000380400</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bureau of the Census</t>
+          <t>National Oceanic and Atmospheric Administration</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Census - Economic Census and Surveys</t>
+          <t>NOAA/OCIO/ NOAA R&amp;D High Performance Computing System (HPCS)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$71.360</t>
+          <t>$63.100</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -719,28 +719,28 @@
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>006-000000129</t>
+          <t>006-000051000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Economics and Statistics Administration</t>
+          <t>Department of Commerce</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BEA Estimation Information Technology System (BEA-EITS) for Measuring the Changing US Economy.</t>
+          <t>OS OFM Commerce Business Systems (CBS)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$12.176</t>
+          <t>$52.702</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -824,7 +824,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>006-000380400</t>
+          <t>006-000313000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -834,12 +834,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NOAA/OCIO/ NOAA R&amp;D High Performance Computing System (HPCS)</t>
+          <t>NOAA/NWS/ NWS Central Processing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$63.100</t>
+          <t>$109.734</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -848,31 +848,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>006-000552000</t>
+          <t>006-000320500</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bureau of Industry and Security</t>
+          <t>National Oceanic and Atmospheric Administration</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BIS Commerce USXPORTS Exporter Support System (CUESS)</t>
+          <t>NOAA/NESDIS/ Comprehensive Large Array-data Stewardship System (CLASS).</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$4.095</t>
+          <t>$19.593</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>006-000400900</t>
+          <t>006-000000136</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Census - Geographic Support Systems (GSS)</t>
+          <t>Census - Enterprise Data Lake (EDL)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$23.569</t>
+          <t>$14.951</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -917,28 +917,28 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>006-000805500</t>
+          <t>006-000552000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>U.S. Patent and Trademark Office</t>
+          <t>Bureau of Industry and Security</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>USPTO Patents Product Line</t>
+          <t>BIS Commerce USXPORTS Exporter Support System (CUESS)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$161.099</t>
+          <t>$4.095</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
